--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345967.8144973222</v>
+        <v>338504.2995506459</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>17287498.18481127</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129927</v>
+        <v>2706694.536732692</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6820110.855512029</v>
+        <v>7183540.559291927</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -671,10 +673,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>35.16791248334776</v>
       </c>
       <c r="H2" t="n">
-        <v>218.1415933307669</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>13.5144690908967</v>
       </c>
       <c r="Y4" t="n">
-        <v>147.4123979031611</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>396.2906240266962</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>110.6735165356752</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1059,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>102.8562685532377</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>192.1206041023297</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>127.1100078938263</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1370,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>34.75529100421592</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>98.89253202274671</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>91.14543434751471</v>
+        <v>75.78308005187021</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1847,22 +1849,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>54.55340531488847</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225757</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>94.21878984361638</v>
       </c>
       <c r="I28" t="n">
-        <v>22.56919457453878</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>152.5168019860612</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>94.21878984361651</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>94.431236732152</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3673,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>45.91568880648644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365719937</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2410.838523748445</v>
+        <v>1824.618792525831</v>
       </c>
       <c r="C2" t="n">
-        <v>1972.696050931869</v>
+        <v>1386.476319709255</v>
       </c>
       <c r="D2" t="n">
-        <v>1536.786266106313</v>
+        <v>950.5665348836992</v>
       </c>
       <c r="E2" t="n">
-        <v>1103.011521264608</v>
+        <v>516.7917900419943</v>
       </c>
       <c r="F2" t="n">
-        <v>675.1440916738161</v>
+        <v>88.92436045120206</v>
       </c>
       <c r="G2" t="n">
-        <v>273.74626029708</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862857</v>
@@ -4331,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4361,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>2410.838523748445</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>2410.838523748445</v>
+        <v>2250.918363010739</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>515.0619848335834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>515.0619848335834</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M3" t="n">
-        <v>515.0619848335834</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N3" t="n">
-        <v>515.0619848335834</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O3" t="n">
-        <v>515.0619848335834</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>819.9954913141095</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>819.9954913141095</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>654.1174985156322</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>484.3594947663694</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>307.6524407281256</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4492,7 +4494,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1011.814110033097</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>855.0926075282902</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>454.7990479053647</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>454.7990479053647</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>454.7990479053647</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2474.617521771149</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304466</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="V5" t="n">
-        <v>2087.376649238293</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="W5" t="n">
-        <v>1682.521194649326</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X5" t="n">
-        <v>1263.378731228637</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y5" t="n">
-        <v>855.0926075282902</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4640,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1568898368411</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>454.7990479053647</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="C8" t="n">
-        <v>454.7990479053647</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="D8" t="n">
-        <v>454.7990479053647</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E8" t="n">
-        <v>454.7990479053647</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4835,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2475.999610166448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2113.382660100275</v>
+        <v>2541.666879063927</v>
       </c>
       <c r="W8" t="n">
-        <v>1708.527205511308</v>
+        <v>2136.81142447496</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.384742090619</v>
+        <v>1717.668961054271</v>
       </c>
       <c r="Y8" t="n">
-        <v>881.0986183902725</v>
+        <v>1309.382837353925</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4890,16 +4892,16 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4987,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1824.618792525831</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.476319709254</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D11" t="n">
-        <v>950.5665348836988</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E11" t="n">
-        <v>516.7917900419939</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F11" t="n">
-        <v>88.92436045120161</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G11" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5078,13 +5080,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W11" t="n">
-        <v>2670.060826431428</v>
+        <v>2570.169379943805</v>
       </c>
       <c r="X11" t="n">
-        <v>2250.918363010739</v>
+        <v>2151.026916523116</v>
       </c>
       <c r="Y11" t="n">
-        <v>2250.918363010739</v>
+        <v>1742.740792822769</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J12" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K12" t="n">
-        <v>1058.729261281022</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="N12" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P12" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q12" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R12" t="n">
         <v>1716.640978007438</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C13" t="n">
-        <v>568.9155211348376</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D13" t="n">
-        <v>403.0375283363603</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E13" t="n">
-        <v>233.2795245870976</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F13" t="n">
-        <v>56.57247054885377</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5221,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>919.4111189359975</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="C14" t="n">
-        <v>481.2686461194208</v>
+        <v>923.085746195889</v>
       </c>
       <c r="D14" t="n">
-        <v>481.2686461194208</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E14" t="n">
-        <v>481.2686461194208</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
@@ -5285,19 +5287,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="M14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O14" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5312,16 +5314,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>2577.994731130908</v>
+        <v>2593.512260722468</v>
       </c>
       <c r="W14" t="n">
-        <v>2173.139276541941</v>
+        <v>2188.656806133502</v>
       </c>
       <c r="X14" t="n">
-        <v>1753.996813121252</v>
+        <v>1769.514342712812</v>
       </c>
       <c r="Y14" t="n">
-        <v>1345.710689420905</v>
+        <v>1361.228219012466</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J15" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K15" t="n">
-        <v>1058.729261281022</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.729261281022</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N15" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="O15" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P15" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q15" t="n">
         <v>1599.468199913098</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C16" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D16" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E16" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F16" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5458,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T16" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U16" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V16" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W16" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X16" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y16" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1416.332668825484</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>978.1901960089076</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>542.280411183352</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>108.5056663416472</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1810.336013065103</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1810.336013065103</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>1810.336013065103</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>2123.562040472833</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472833</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>2250.918363010739</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>1842.632239310392</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>404.0232146552985</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>404.0232146552985</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M18" t="n">
-        <v>404.0232146552985</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N18" t="n">
-        <v>404.0232146552985</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O18" t="n">
-        <v>404.0232146552985</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.1364226482442</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>749.5747111314691</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>583.6967183329918</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>413.9387145837291</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>237.2316605454853</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>71.64038557131298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2145.748379262989</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1858.792871133419</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1586.766466719711</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1341.374712053123</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.955041367231</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5743,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="25">
@@ -6215,37 +6217,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>777.0165135789917</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>607.2585098297291</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>430.5514557914853</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>264.960180817313</v>
+        <v>286.091284287636</v>
       </c>
       <c r="H28" t="n">
-        <v>125.0580065076875</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6461,31 +6463,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>211.2405030940769</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>211.2405030940769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.300469346936</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2443.348304557487</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
         <v>5029.390139722817</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1162.814665109382</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6686,10 +6688,10 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
         <v>102.6776296436396</v>
@@ -6704,10 +6706,10 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1632.322702740237</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740237</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
         <v>2758.053686176684</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>875.8255515988633</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>703.2638400820882</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>537.3858472836109</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>367.6278435343481</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2623.749955382047</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2377.870508960502</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2099.437508213608</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1812.482000084038</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1540.45559567033</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1295.063841003742</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1067.64417031785</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,49 +6940,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>356.5120644702766</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,34 +7174,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>4729.704604581732</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>949.5782250957668</v>
+        <v>3365.117609755798</v>
       </c>
       <c r="C40" t="n">
-        <v>777.0165135789917</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D40" t="n">
-        <v>611.1385207805145</v>
+        <v>3026.677905440545</v>
       </c>
       <c r="E40" t="n">
-        <v>441.3805170312517</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6734629930079</v>
+        <v>2680.212847653039</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>2514.621572678866</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>4867.162567117436</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>4588.729566370542</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>4301.774058240972</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>4029.747653827264</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>3784.355899160676</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814754</v>
+        <v>3556.936228474785</v>
       </c>
     </row>
     <row r="41">
@@ -7400,34 +7402,34 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
         <v>4943.887948785924</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.095648603258</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1350.953175786681</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>915.0433909611256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>481.2686461194208</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862856</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>714.2412710704069</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1375.081325612185</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2035.921380153963</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2670.060826431428</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2670.060826431428</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2623.681342788512</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2215.395219088166</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1512.992809943912</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>1406.536348780554</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>1311.446059927107</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>1217.325645254061</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>1133.941806870223</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>1048.556717136407</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>1006.821064952619</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>1032.884738113077</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>1357.443063079289</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>2012.149109705013</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.888048337089</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>2670.060826431428</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>2606.605388879811</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>2476.426745210413</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>2300.090198210381</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>2100.97268027238</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1915.649926005574</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>1760.782490244454</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>1634.296711023675</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.4772326516122</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887846</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903073</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410446</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028008</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862846</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862846</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862846</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933183</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644539</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.949238032415</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434796</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013251</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136787</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.715522056491</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2958513705994</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>112.1603739174596</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8538,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9164,28 +9166,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>316.389926674475</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>110.08046749828</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10352,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,7 +10600,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10835,13 +10837,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>387.209503997221</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078567</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>640.5448952297625</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>362.215940579621</v>
       </c>
       <c r="H2" t="n">
-        <v>68.09725968044901</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22601,7 +22603,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -22610,7 +22612,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22705,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22720,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>229.4233680290249</v>
       </c>
       <c r="Y4" t="n">
-        <v>77.73307607587165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>37.47042406171471</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>107.1930383200166</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22945,10 +22947,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>65.20415515853239</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23030,7 +23032,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,10 +23077,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>64.50947555382356</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>231.8807726716854</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23227,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>362.6285620587528</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>301.9143680203303</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23552,7 +23554,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>267.845346217997</v>
+        <v>283.2077005136415</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142717</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>44.28436272291285</v>
       </c>
       <c r="I28" t="n">
-        <v>65.20415515853264</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>18.31929241554607</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>63.4301651713668</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>73.62918697961811</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465527.9380159306</v>
+        <v>465527.9380159307</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465527.9380159307</v>
+        <v>465527.9380159308</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465527.9380159307</v>
+        <v>725231.4789176881</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725231.4789176882</v>
+        <v>725231.4789176881</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>725231.4789176882</v>
+        <v>725231.4789176881</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>725231.4789176882</v>
+        <v>725231.4789176881</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725231.4789176882</v>
+        <v>725231.4789176881</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465527.9380159306</v>
+        <v>725231.4789176881</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26319,19 @@
         <v>152186.0528060573</v>
       </c>
       <c r="D2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="E2" t="n">
         <v>152186.0528060574</v>
       </c>
       <c r="F2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="G2" t="n">
-        <v>152186.0528060573</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="H2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="I2" t="n">
         <v>237085.9128618085</v>
@@ -26338,7 +26340,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="K2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="L2" t="n">
         <v>237085.9128618086</v>
@@ -26350,10 +26352,10 @@
         <v>237085.9128618086</v>
       </c>
       <c r="O2" t="n">
+        <v>237085.9128618086</v>
+      </c>
+      <c r="P2" t="n">
         <v>237085.9128618085</v>
-      </c>
-      <c r="P2" t="n">
-        <v>152186.0528060573</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>167396.1246670934</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>146976.4664146549</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,19 +26423,19 @@
         <v>26396.92784106698</v>
       </c>
       <c r="D4" t="n">
-        <v>26396.92784106698</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="E4" t="n">
-        <v>26396.92784106698</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="F4" t="n">
         <v>26396.92784106698</v>
       </c>
       <c r="G4" t="n">
-        <v>26396.92784106698</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26457,7 +26459,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>26396.92784106698</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26470,31 +26472,31 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,31 +26524,31 @@
         <v>-172123.0981808122</v>
       </c>
       <c r="C6" t="n">
-        <v>51576.60040323265</v>
+        <v>51576.60040323263</v>
       </c>
       <c r="D6" t="n">
         <v>51576.60040323265</v>
       </c>
       <c r="E6" t="n">
-        <v>85204.20040323268</v>
+        <v>85204.20040323265</v>
       </c>
       <c r="F6" t="n">
-        <v>85204.20040323265</v>
+        <v>85204.20040323267</v>
       </c>
       <c r="G6" t="n">
-        <v>85204.20040323262</v>
+        <v>-49151.40234099005</v>
       </c>
       <c r="H6" t="n">
-        <v>-46539.85545197221</v>
+        <v>118244.7223261033</v>
       </c>
       <c r="I6" t="n">
         <v>118244.7223261033</v>
       </c>
       <c r="J6" t="n">
-        <v>-56406.62639160287</v>
+        <v>-56406.62639160283</v>
       </c>
       <c r="K6" t="n">
-        <v>118244.7223261034</v>
+        <v>118244.7223261033</v>
       </c>
       <c r="L6" t="n">
         <v>118244.7223261033</v>
@@ -26558,10 +26560,10 @@
         <v>118244.7223261033</v>
       </c>
       <c r="O6" t="n">
+        <v>-28731.74408855155</v>
+      </c>
+      <c r="P6" t="n">
         <v>118244.7223261033</v>
-      </c>
-      <c r="P6" t="n">
-        <v>85204.20040323265</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26792,19 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>112.1603739174596</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35884,28 +35886,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>316.389926674475</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>110.08046749828</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37072,13 +37074,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,10 +37317,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37555,13 +37557,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>387.209503997221</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078567</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>640.5448952297625</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>338504.2995506459</v>
+        <v>335839.3320824885</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2706694.536732692</v>
+        <v>2706694.536732691</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7183540.559291927</v>
+        <v>7183540.559291926</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>32.19246757545231</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>35.16791248334776</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5144690908967</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>8.57646480331889</v>
       </c>
       <c r="T5" t="n">
-        <v>110.6735165356752</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>379.4415111894141</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>127.1100078938263</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>98.89253202274671</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>268.3727301458094</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>75.78308005187021</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>45.50306732735508</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2575,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>94.21878984361638</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3040,7 +3040,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1824.618792525831</v>
+        <v>85.91886054423696</v>
       </c>
       <c r="C2" t="n">
-        <v>1386.476319709255</v>
+        <v>85.91886054423696</v>
       </c>
       <c r="D2" t="n">
-        <v>950.5665348836992</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="E2" t="n">
-        <v>516.7917900419943</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F2" t="n">
-        <v>88.92436045120206</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
         <v>53.40121652862857</v>
@@ -4336,13 +4336,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W2" t="n">
-        <v>2670.060826431428</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X2" t="n">
-        <v>2250.918363010739</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y2" t="n">
-        <v>2250.918363010739</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4494,7 +4494,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.095648603258</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="C5" t="n">
         <v>1350.953175786681</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2661.3977306705</v>
       </c>
       <c r="T5" t="n">
-        <v>2474.617521771149</v>
+        <v>2441.330503543539</v>
       </c>
       <c r="U5" t="n">
-        <v>2215.395219088166</v>
+        <v>2182.108200860555</v>
       </c>
       <c r="V5" t="n">
-        <v>2215.395219088166</v>
+        <v>2182.108200860555</v>
       </c>
       <c r="W5" t="n">
-        <v>2215.395219088166</v>
+        <v>1777.252746271589</v>
       </c>
       <c r="X5" t="n">
-        <v>2215.395219088166</v>
+        <v>1777.252746271589</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.395219088166</v>
+        <v>1777.252746271589</v>
       </c>
     </row>
     <row r="6">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>883.0832668690169</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="C8" t="n">
-        <v>883.0832668690169</v>
+        <v>1306.35999992257</v>
       </c>
       <c r="D8" t="n">
-        <v>883.0832668690169</v>
+        <v>870.4502150970143</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>436.6754702553094</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1375.081325612186</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612186</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153964</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2541.666879063927</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2136.81142447496</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.668961054271</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.382837353925</v>
+        <v>1744.502472739146</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1316.441222337862</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C11" t="n">
-        <v>1316.441222337862</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D11" t="n">
-        <v>1316.441222337862</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E11" t="n">
-        <v>882.6664774961569</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F11" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5071,22 +5071,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W11" t="n">
-        <v>2570.169379943805</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X11" t="n">
-        <v>2151.026916523116</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y11" t="n">
-        <v>1742.740792822769</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>394.9608689238807</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M12" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N12" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O12" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P12" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R12" t="n">
         <v>1716.640978007438</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F13" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5226,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T13" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U13" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V13" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1361.228219012466</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C14" t="n">
-        <v>923.085746195889</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D14" t="n">
-        <v>487.1759613703334</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E14" t="n">
-        <v>53.40121652862857</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K14" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L14" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5314,16 +5314,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>2593.512260722468</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W14" t="n">
-        <v>2188.656806133502</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X14" t="n">
-        <v>1769.514342712812</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y14" t="n">
-        <v>1361.228219012466</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L15" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M15" t="n">
-        <v>938.6281453713193</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N15" t="n">
-        <v>938.6281453713193</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O15" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P15" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
         <v>1599.468199913098</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5463,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5764,40 +5764,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>286.091284287636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6472,37 +6472,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3365.117609755798</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>3026.677905440545</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>2680.212847653039</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>2514.621572678866</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117436</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.729566370542</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>4301.774058240972</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>4029.747653827264</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>3784.355899160676</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>3556.936228474785</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7399,13 +7399,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7420,43 +7420,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7560,10 +7560,10 @@
         <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134636</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7797,10 +7797,10 @@
         <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5000093134636</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8054,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>226.6534083847598</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9242,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>399.3582194018476</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>362.215940579621</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>229.4233680290249</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>74.23889027468248</v>
       </c>
       <c r="T5" t="n">
-        <v>107.1930383200166</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.14724410547024</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>231.8807726716854</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23266,16 +23266,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23311,19 +23311,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>301.9143680203303</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>146.578308640673</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>283.2077005136415</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.4479714591273</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>44.28436272291285</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142708</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H43" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H46" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465527.9380159307</v>
+        <v>465527.9380159308</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465527.9380159307</v>
+        <v>465527.9380159306</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465527.9380159308</v>
+        <v>465527.9380159307</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465527.9380159307</v>
+        <v>465527.9380159306</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>725231.4789176881</v>
+        <v>725231.4789176882</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725231.4789176881</v>
+        <v>725231.4789176882</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>725231.4789176881</v>
+        <v>725231.4789176882</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>725231.4789176881</v>
+        <v>725231.4789176882</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>725231.4789176882</v>
+        <v>725231.4789176881</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725231.4789176881</v>
+        <v>725231.4789176882</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>725231.4789176881</v>
+        <v>725231.4789176882</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>152186.0528060574</v>
       </c>
       <c r="C2" t="n">
+        <v>152186.0528060574</v>
+      </c>
+      <c r="D2" t="n">
         <v>152186.0528060573</v>
       </c>
-      <c r="D2" t="n">
-        <v>152186.0528060574</v>
-      </c>
       <c r="E2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="F2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="G2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="H2" t="n">
         <v>237085.9128618086</v>
@@ -26340,16 +26340,16 @@
         <v>237085.9128618085</v>
       </c>
       <c r="K2" t="n">
+        <v>237085.9128618086</v>
+      </c>
+      <c r="L2" t="n">
         <v>237085.9128618085</v>
       </c>
-      <c r="L2" t="n">
-        <v>237085.9128618086</v>
-      </c>
       <c r="M2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="N2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="O2" t="n">
         <v>237085.9128618086</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>167396.1246670934</v>
+        <v>167396.1246670935</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>146976.4664146549</v>
+        <v>146976.466414655</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>26396.92784106698</v>
       </c>
       <c r="D4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="E4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="F4" t="n">
         <v>26396.92784106698</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991272</v>
@@ -26444,10 +26444,10 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
+        <v>41122.95192991272</v>
+      </c>
+      <c r="L4" t="n">
         <v>41122.95192991271</v>
-      </c>
-      <c r="L4" t="n">
-        <v>41122.95192991272</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991271</v>
@@ -26456,7 +26456,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="P4" t="n">
         <v>41122.95192991271</v>
@@ -26475,28 +26475,28 @@
         <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26505,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172123.0981808122</v>
+        <v>-172617.9884093935</v>
       </c>
       <c r="C6" t="n">
-        <v>51576.60040323263</v>
+        <v>51081.7101746514</v>
       </c>
       <c r="D6" t="n">
-        <v>51576.60040323265</v>
+        <v>51081.71017465139</v>
       </c>
       <c r="E6" t="n">
-        <v>85204.20040323265</v>
+        <v>84709.3101746514</v>
       </c>
       <c r="F6" t="n">
-        <v>85204.20040323267</v>
+        <v>84709.3101746514</v>
       </c>
       <c r="G6" t="n">
-        <v>-49151.40234099005</v>
+        <v>-49174.62668037278</v>
       </c>
       <c r="H6" t="n">
-        <v>118244.7223261033</v>
+        <v>118221.4979867207</v>
       </c>
       <c r="I6" t="n">
-        <v>118244.7223261033</v>
+        <v>118221.4979867207</v>
       </c>
       <c r="J6" t="n">
-        <v>-56406.62639160283</v>
+        <v>-56429.85073098551</v>
       </c>
       <c r="K6" t="n">
-        <v>118244.7223261033</v>
+        <v>118221.4979867207</v>
       </c>
       <c r="L6" t="n">
-        <v>118244.7223261033</v>
+        <v>118221.4979867207</v>
       </c>
       <c r="M6" t="n">
-        <v>118244.7223261033</v>
+        <v>118221.4979867207</v>
       </c>
       <c r="N6" t="n">
-        <v>118244.7223261033</v>
+        <v>118221.4979867207</v>
       </c>
       <c r="O6" t="n">
-        <v>-28731.74408855155</v>
+        <v>-28754.96842793427</v>
       </c>
       <c r="P6" t="n">
-        <v>118244.7223261033</v>
+        <v>118221.4979867207</v>
       </c>
     </row>
   </sheetData>
@@ -26795,13 +26795,13 @@
         <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34774,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>226.6534083847598</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
